--- a/华晨培训第一期报名册.xlsx
+++ b/华晨培训第一期报名册.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="99">
   <si>
     <t>高中部</t>
   </si>
@@ -315,6 +315,10 @@
   </si>
   <si>
     <t>18871821756</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>邓长路</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -725,7 +729,7 @@
   <dimension ref="A1:AMK72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1080,7 +1084,7 @@
         <v>26</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>21</v>
+        <v>98</v>
       </c>
       <c r="J11"/>
       <c r="K11" s="1">

--- a/华晨培训第一期报名册.xlsx
+++ b/华晨培训第一期报名册.xlsx
@@ -726,10 +726,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AMK72"/>
+  <dimension ref="A1:AMK73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="J63" sqref="J63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1214,7 +1214,7 @@
       <c r="I15" s="4"/>
       <c r="J15"/>
       <c r="K15" s="1">
-        <v>0</v>
+        <v>600</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -1245,7 +1245,7 @@
       <c r="I16" s="4"/>
       <c r="J16"/>
       <c r="K16" s="1">
-        <v>400</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -1278,7 +1278,7 @@
       </c>
       <c r="J17"/>
       <c r="K17" s="1">
-        <v>1000</v>
+        <v>600</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1342,7 +1342,7 @@
       <c r="I19" s="4"/>
       <c r="J19"/>
       <c r="K19" s="1">
-        <v>0</v>
+        <v>600</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1373,7 +1373,7 @@
       <c r="I20" s="4"/>
       <c r="J20"/>
       <c r="K20" s="1">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1406,7 +1406,7 @@
         <v>43</v>
       </c>
       <c r="K21" s="1">
-        <v>1400</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1536,7 +1536,7 @@
         <v>13517132733</v>
       </c>
       <c r="K25" s="1">
-        <v>0</v>
+        <v>800</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1699,7 +1699,7 @@
         <v>13135851555</v>
       </c>
       <c r="K30" s="1">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1802,7 +1802,7 @@
         <v>13636287299</v>
       </c>
       <c r="K33" s="1">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1835,7 +1835,7 @@
         <v>15971708966</v>
       </c>
       <c r="K34" s="1">
-        <v>0</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1867,7 +1867,9 @@
       <c r="J35" s="1">
         <v>13631582518</v>
       </c>
-      <c r="K35"/>
+      <c r="K35" s="1">
+        <v>1000</v>
+      </c>
     </row>
     <row r="36" spans="1:11">
       <c r="A36" s="9" t="s">
@@ -1894,7 +1896,9 @@
       <c r="J36" s="1">
         <v>13886757469</v>
       </c>
-      <c r="K36"/>
+      <c r="K36" s="1">
+        <v>600</v>
+      </c>
     </row>
     <row r="37" spans="1:11">
       <c r="A37" s="9" t="s">
@@ -1925,6 +1929,9 @@
       <c r="J37" s="1">
         <v>15888606744</v>
       </c>
+      <c r="K37" s="1">
+        <v>600</v>
+      </c>
     </row>
     <row r="38" spans="1:11">
       <c r="A38" s="9" t="s">
@@ -1954,6 +1961,9 @@
       <c r="I38"/>
       <c r="J38" s="1">
         <v>13044866605</v>
+      </c>
+      <c r="K38" s="1">
+        <v>600</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1967,6 +1977,10 @@
       <c r="H39"/>
       <c r="I39"/>
       <c r="J39"/>
+      <c r="K39" s="1">
+        <f>SUM(K3:K38)</f>
+        <v>34100</v>
+      </c>
     </row>
     <row r="40" spans="1:11">
       <c r="A40"/>
@@ -2378,7 +2392,10 @@
       <c r="G63"/>
       <c r="H63"/>
       <c r="I63"/>
-      <c r="J63"/>
+      <c r="J63">
+        <f>SUM(J55:J62)</f>
+        <v>5500</v>
+      </c>
     </row>
     <row r="64" spans="1:10">
       <c r="A64" s="2" t="s">
@@ -2541,6 +2558,12 @@
       </c>
       <c r="F72" s="1">
         <v>300</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
+      <c r="F73" s="1">
+        <f>SUM(F66:F72)</f>
+        <v>2100</v>
       </c>
     </row>
   </sheetData>
@@ -2580,6 +2603,6 @@
   <sheetData/>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>